--- a/Test/Zaidel_multistep.xlsx
+++ b/Test/Zaidel_multistep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1995,598 +1995,598 @@
                   <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.9691078003</c:v>
+                  <c:v>22.99999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.9381217276</c:v>
+                  <c:v>22.99999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.9070410837</c:v>
+                  <c:v>22.99999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.8758651616</c:v>
+                  <c:v>22.99999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.8445932457</c:v>
+                  <c:v>22.99999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.8132246114</c:v>
+                  <c:v>22.9999999399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.7817585251</c:v>
+                  <c:v>22.9999999299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.7501942437</c:v>
+                  <c:v>22.9999999199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.7185310149</c:v>
+                  <c:v>22.9999999099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.6867680765</c:v>
+                  <c:v>22.9999998999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.6549046564</c:v>
+                  <c:v>22.9999998899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.6229399726</c:v>
+                  <c:v>22.9999998799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.5908732324</c:v>
+                  <c:v>22.9999998699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.5587036326</c:v>
+                  <c:v>22.9999998599</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.5264303593</c:v>
+                  <c:v>22.9999998499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.4940525871</c:v>
+                  <c:v>22.9999998399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.4615694794</c:v>
+                  <c:v>22.9999998299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.4289801876</c:v>
+                  <c:v>22.9999998198</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.3962838509</c:v>
+                  <c:v>22.9999998098</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.3634795962</c:v>
+                  <c:v>22.9999997998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.3305665372</c:v>
+                  <c:v>22.9999997898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.2975437742</c:v>
+                  <c:v>22.9999997798</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.2644103932</c:v>
+                  <c:v>22.9999997698</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.2311654659</c:v>
+                  <c:v>22.9999997598</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.1978080483</c:v>
+                  <c:v>22.9999997336</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.16433718</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.130751883</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.09705116</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.063233992</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.0292993346</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21.9952461102</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.9610731881</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21.9267792092</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.8923514438</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.8577750987</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.8230318738</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.7880985734</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21.7529448841</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.7175295845</c:v>
+                  <c:v>20.000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.6817935288</c:v>
+                  <c:v>19.9623755008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>21.6695408698</c:v>
+                  <c:v>19.9573594059</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21.6572804331</c:v>
+                  <c:v>19.9523433109</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.6450118661</c:v>
+                  <c:v>19.9473272159</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21.6327347837</c:v>
+                  <c:v>19.9423111209</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21.6204487627</c:v>
+                  <c:v>19.937295026</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21.6081533364</c:v>
+                  <c:v>19.932278931</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.5958479878</c:v>
+                  <c:v>19.927262836</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.5835321405</c:v>
+                  <c:v>19.922246741</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21.571205148</c:v>
+                  <c:v>19.9172306461</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21.5588662807</c:v>
+                  <c:v>19.9122145511</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21.5465147083</c:v>
+                  <c:v>19.9071984561</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>21.5341494775</c:v>
+                  <c:v>19.9021823611</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21.5217694834</c:v>
+                  <c:v>19.8971662662</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21.5093734297</c:v>
+                  <c:v>19.8921501712</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21.4969597747</c:v>
+                  <c:v>19.8871340762</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21.4845266553</c:v>
+                  <c:v>19.8821179812</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21.4720717752</c:v>
+                  <c:v>19.8771018863</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21.459592235</c:v>
+                  <c:v>19.8720857913</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.447084261</c:v>
+                  <c:v>19.8670696963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.434542743</c:v>
+                  <c:v>19.8620536013</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>21.4219603785</c:v>
+                  <c:v>19.8570375064</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>21.4093258934</c:v>
+                  <c:v>19.8520214114</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21.3966196395</c:v>
+                  <c:v>19.8470053164</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>21.3837989588</c:v>
+                  <c:v>19.8419892214</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>21.3707032322</c:v>
+                  <c:v>19.8369731265</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>21.3565141529</c:v>
+                  <c:v>19.8319570315</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>21.3410325233</c:v>
+                  <c:v>19.8269409365</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>21.3239992498</c:v>
+                  <c:v>19.8219248415</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21.3050686615</c:v>
+                  <c:v>19.8169087466</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>21.2837650958</c:v>
+                  <c:v>19.8118926516</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>21.259408383</c:v>
+                  <c:v>19.8068765566</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>21.2309769849</c:v>
+                  <c:v>19.8018604616</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>21.1968336826</c:v>
+                  <c:v>19.7968443666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21.1541064184</c:v>
+                  <c:v>19.7918282717</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21.0970294441</c:v>
+                  <c:v>19.7868121767</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.0110902845</c:v>
+                  <c:v>19.7817960817</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>20.8372400495</c:v>
+                  <c:v>19.7767799867</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>18.9837057947</c:v>
+                  <c:v>19.7717638918</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>17.13017154</c:v>
+                  <c:v>19.7667477968</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15.276637276</c:v>
+                  <c:v>19.7617317018</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.423103012</c:v>
+                  <c:v>19.7567155433</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.3900812112</c:v>
+                  <c:v>19.5962149685</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.3566878378</c:v>
+                  <c:v>19.4332232404</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.3229081987</c:v>
+                  <c:v>19.2676736422</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.2887266013</c:v>
+                  <c:v>19.0994851138</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.2541262557</c:v>
+                  <c:v>18.9285851379</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.2190891654</c:v>
+                  <c:v>18.7548983786</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.1835960031</c:v>
+                  <c:v>18.5783465536</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.1476259695</c:v>
+                  <c:v>18.3988615863</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.1111566335</c:v>
+                  <c:v>18.2163595651</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.074163748</c:v>
+                  <c:v>18.0307390555</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.0366210395</c:v>
+                  <c:v>17.8419083859</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.998499965</c:v>
+                  <c:v>17.6497720857</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.9597694312</c:v>
+                  <c:v>17.4542151367</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>12.9203954669</c:v>
+                  <c:v>17.2551329149</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12.8803408401</c:v>
+                  <c:v>17.0524162885</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>12.8395646087</c:v>
+                  <c:v>16.8459513701</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>12.7980215879</c:v>
+                  <c:v>16.6356192328</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>12.7556617174</c:v>
+                  <c:v>16.4212956411</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>12.7124293029</c:v>
+                  <c:v>16.2028697483</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.6682621013</c:v>
+                  <c:v>15.9802069815</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>12.6230902082</c:v>
+                  <c:v>15.7531665448</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>12.5768346935</c:v>
+                  <c:v>15.521601075</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.5294059137</c:v>
+                  <c:v>15.2853562029</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12.4807014015</c:v>
+                  <c:v>15.0442701665</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>12.4306031989</c:v>
+                  <c:v>14.7981733178</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>12.3789744459</c:v>
+                  <c:v>14.5468876684</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>12.3256549568</c:v>
+                  <c:v>14.2902263269</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>12.2704553986</c:v>
+                  <c:v>14.027992941</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>12.2131494997</c:v>
+                  <c:v>13.7599810733</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>12.1534634227</c:v>
+                  <c:v>13.4859735384</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>12.0910609535</c:v>
+                  <c:v>13.2057120527</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>12.0255223453</c:v>
+                  <c:v>12.9189225829</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>11.956313218</c:v>
+                  <c:v>12.625346274</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>11.8827372765</c:v>
+                  <c:v>12.3247433932</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>11.8038614901</c:v>
+                  <c:v>12.0168628702</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>11.718391802</c:v>
+                  <c:v>11.701441643</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>11.6244538533</c:v>
+                  <c:v>11.3781658464</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>11.5191753166</c:v>
+                  <c:v>11.0467430373</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>11.3978055005</c:v>
+                  <c:v>10.7068246135</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>11.2515782995</c:v>
+                  <c:v>10.3580410231</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>11.0612938738</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11.0438652769</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>11.0264192592</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>11.0089557783</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>10.9914747919</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>10.9739762572</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>10.9564601314</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>10.9389263715</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>10.9213749343</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>10.9038057765</c:v>
+                  <c:v>10.0000000003</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>10.8862188545</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>10.8686141248</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>10.8509915433</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>10.8333510662</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>10.8156926492</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>10.7980162479</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>10.7803218178</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>10.7626093142</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.7448786921</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>10.7271299064</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>10.7093629119</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>10.6915776632</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>10.6737741146</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>10.6559522203</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>10.6381119342</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>10.6202532103</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>10.6023760022</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>10.5844802632</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>10.5665659466</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>10.5486330055</c:v>
+                  <c:v>10.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>10.5306813928</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>10.5127110611</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>10.494721963</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>10.4767140506</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>10.4586872762</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>10.4406415915</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>10.4225769484</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>10.4044932982</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>10.3863905923</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>10.3682687819</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10.3501278176</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>10.3319676504</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>10.3227898451</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>10.3136095716</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>10.3044268281</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>10.2952416132</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>10.2860539251</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>10.2768637623</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>10.2676711232</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>10.258476006</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>10.2492784092</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>10.2400783311</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>10.2308757702</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>10.2216707247</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>10.2124631931</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>10.2032531737</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>10.1940406649</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>10.184825665</c:v>
+                  <c:v>10.0000000001</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>10.1756081723</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>10.1663881854</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>10.1571657024</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10.1479407217</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>10.1387132418</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>10.1294832609</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>10.1202507774</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>10.1110157897</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>10.101778296</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>10.0925382948</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>10.0832957844</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>10.074050763</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>10.0648032291</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>10.055553181</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>10.0463006169</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>10.0370455354</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>10.0277879345</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>10.0185278128</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>10.0092651685</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>10.0</c:v>
@@ -2604,11 +2604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2084378904"/>
-        <c:axId val="-2084329128"/>
+        <c:axId val="2077152024"/>
+        <c:axId val="2077155016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2084378904"/>
+        <c:axId val="2077152024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,12 +2618,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084329128"/>
+        <c:crossAx val="2077155016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2084329128"/>
+        <c:axId val="2077155016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +2634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084378904"/>
+        <c:crossAx val="2077152024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3016,7 +3016,7 @@
   <dimension ref="A2:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3052,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>22.969107800300002</v>
+        <v>22.999999989999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>22.938121727599999</v>
+        <v>22.999999979999998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>22.907041083700001</v>
+        <v>22.999999970000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3088,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>22.8758651616</v>
+        <v>22.99999996</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>22.8445932457</v>
+        <v>22.999999949999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3112,7 +3112,7 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>22.813224611399999</v>
+        <v>22.9999999399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3124,7 +3124,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>22.781758525099999</v>
+        <v>22.9999999299</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>22.750194243700001</v>
+        <v>22.999999919899999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>22.718531014900002</v>
+        <v>22.999999909900001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>22.686768076500002</v>
+        <v>22.999999899900001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>22.654904656399999</v>
+        <v>22.9999998899</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3184,7 +3184,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>22.622939972600001</v>
+        <v>22.999999879899999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3196,7 +3196,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>22.5908732324</v>
+        <v>22.999999869900002</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>22.5587036326</v>
+        <v>22.999999859900001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3220,7 +3220,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>22.526430359300001</v>
+        <v>22.9999998499</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3232,7 +3232,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>22.494052587100001</v>
+        <v>22.999999839899999</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3244,7 +3244,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>22.461569479400001</v>
+        <v>22.999999829899998</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3256,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>22.428980187600001</v>
+        <v>22.999999819799999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3268,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>22.396283850900002</v>
+        <v>22.999999809799998</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>22.363479596200001</v>
+        <v>22.999999799800001</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <v>22.330566537199999</v>
+        <v>22.9999997898</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>20</v>
       </c>
       <c r="C25">
-        <v>22.297543774200001</v>
+        <v>22.9999997798</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3316,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <v>22.264410393199999</v>
+        <v>22.999999769799999</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>20</v>
       </c>
       <c r="C27">
-        <v>22.231165465899998</v>
+        <v>22.999999759800001</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>22.197808048300001</v>
+        <v>22.999999733599999</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3352,7 +3352,7 @@
         <v>20</v>
       </c>
       <c r="C29">
-        <v>22.16433718</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3364,7 +3364,7 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>22.130751882999999</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3376,7 +3376,7 @@
         <v>20</v>
       </c>
       <c r="C31">
-        <v>22.097051159999999</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3388,7 +3388,7 @@
         <v>20</v>
       </c>
       <c r="C32">
-        <v>22.063233992000001</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3400,7 +3400,7 @@
         <v>20</v>
       </c>
       <c r="C33">
-        <v>22.029299334600001</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>21.9952461102</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>21.961073188099999</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>21.926779209199999</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3448,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>21.892351443799999</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>21.857775098699999</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>21.823031873800002</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3484,7 +3484,7 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>21.788098573399999</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3496,7 +3496,7 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>21.7529448841</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3508,7 +3508,7 @@
         <v>20</v>
       </c>
       <c r="C42">
-        <v>21.717529584499999</v>
+        <v>20.000001000000001</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>15</v>
       </c>
       <c r="C43">
-        <v>21.6817935288</v>
+        <v>19.9623755008</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>21.669540869799999</v>
+        <v>19.9573594059</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>15</v>
       </c>
       <c r="C45">
-        <v>21.657280433099999</v>
+        <v>19.952343310900002</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="C46">
-        <v>21.645011866099999</v>
+        <v>19.9473272159</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="C47">
-        <v>21.632734783699998</v>
+        <v>19.942311120900001</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3580,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>21.620448762700001</v>
+        <v>19.937295026000001</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3592,7 +3592,7 @@
         <v>15</v>
       </c>
       <c r="C49">
-        <v>21.608153336400001</v>
+        <v>19.932278930999999</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <v>21.595847987799999</v>
+        <v>19.927262836000001</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3616,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="C51">
-        <v>21.583532140500001</v>
+        <v>19.922246740999999</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3628,7 +3628,7 @@
         <v>15</v>
       </c>
       <c r="C52">
-        <v>21.571205148000001</v>
+        <v>19.917230646099998</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3640,7 +3640,7 @@
         <v>15</v>
       </c>
       <c r="C53">
-        <v>21.558866280699998</v>
+        <v>19.9122145511</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>21.546514708299998</v>
+        <v>19.907198456100001</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>21.534149477500002</v>
+        <v>19.902182361099999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>21.5217694834</v>
+        <v>19.897166266199999</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3688,7 +3688,7 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>21.509373429699998</v>
+        <v>19.892150171200001</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <v>21.496959774699999</v>
+        <v>19.887134076199999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3712,7 +3712,7 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>21.484526655300002</v>
+        <v>19.8821179812</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3724,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>21.4720717752</v>
+        <v>19.8771018863</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3736,7 +3736,7 @@
         <v>15</v>
       </c>
       <c r="C61">
-        <v>21.459592234999999</v>
+        <v>19.872085791300002</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3748,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="C62">
-        <v>21.447084261000001</v>
+        <v>19.8670696963</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3760,7 +3760,7 @@
         <v>15</v>
       </c>
       <c r="C63">
-        <v>21.434542743000002</v>
+        <v>19.862053601300001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3772,7 +3772,7 @@
         <v>15</v>
       </c>
       <c r="C64">
-        <v>21.4219603785</v>
+        <v>19.857037506400001</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="C65">
-        <v>21.409325893399998</v>
+        <v>19.852021411399999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>15</v>
       </c>
       <c r="C66">
-        <v>21.396619639499999</v>
+        <v>19.847005316400001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>15</v>
       </c>
       <c r="C67">
-        <v>21.3837989588</v>
+        <v>19.841989221399999</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="C68">
-        <v>21.3707032322</v>
+        <v>19.836973126499998</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3832,7 +3832,7 @@
         <v>15</v>
       </c>
       <c r="C69">
-        <v>21.356514152900001</v>
+        <v>19.8319570315</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3844,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="C70">
-        <v>21.341032523300001</v>
+        <v>19.826940936500002</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3856,7 +3856,7 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>21.3239992498</v>
+        <v>19.8219248415</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3868,7 +3868,7 @@
         <v>15</v>
       </c>
       <c r="C72">
-        <v>21.305068661499998</v>
+        <v>19.816908746599999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3880,7 +3880,7 @@
         <v>15</v>
       </c>
       <c r="C73">
-        <v>21.2837650958</v>
+        <v>19.811892651600001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3892,7 +3892,7 @@
         <v>15</v>
       </c>
       <c r="C74">
-        <v>21.259408383</v>
+        <v>19.806876556599999</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3904,7 +3904,7 @@
         <v>15</v>
       </c>
       <c r="C75">
-        <v>21.2309769849</v>
+        <v>19.8018604616</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3916,7 +3916,7 @@
         <v>15</v>
       </c>
       <c r="C76">
-        <v>21.196833682600001</v>
+        <v>19.796844366599998</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <v>21.154106418400001</v>
+        <v>19.791828271699998</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>15</v>
       </c>
       <c r="C78">
-        <v>21.097029444099999</v>
+        <v>19.7868121767</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>15</v>
       </c>
       <c r="C79">
-        <v>21.0110902845</v>
+        <v>19.781796081700001</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>15</v>
       </c>
       <c r="C80">
-        <v>20.8372400495</v>
+        <v>19.776779986699999</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>15</v>
       </c>
       <c r="C81">
-        <v>18.983705794700001</v>
+        <v>19.771763891799999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3988,7 +3988,7 @@
         <v>15</v>
       </c>
       <c r="C82">
-        <v>17.130171539999999</v>
+        <v>19.766747796800001</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4000,7 +4000,7 @@
         <v>15</v>
       </c>
       <c r="C83">
-        <v>15.276637276000001</v>
+        <v>19.761731701799999</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4012,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>13.423103012</v>
+        <v>19.7567155433</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4024,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>13.3900812112</v>
+        <v>19.5962149685</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4036,7 +4036,7 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>13.356687837799999</v>
+        <v>19.4332232404</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4048,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>13.3229081987</v>
+        <v>19.267673642199998</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>13.2887266013</v>
+        <v>19.0994851138</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>13.254126255699999</v>
+        <v>18.928585137900001</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>13.2190891654</v>
+        <v>18.7548983786</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4096,7 +4096,7 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>13.1835960031</v>
+        <v>18.578346553599999</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4108,7 +4108,7 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>13.1476259695</v>
+        <v>18.398861586300001</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4120,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>13.1111566335</v>
+        <v>18.216359565099999</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4132,7 +4132,7 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>13.074163748</v>
+        <v>18.0307390555</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4144,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>13.0366210395</v>
+        <v>17.841908385899998</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4156,7 +4156,7 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>12.998499965000001</v>
+        <v>17.6497720857</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4168,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>12.9597694312</v>
+        <v>17.4542151367</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4180,7 +4180,7 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>12.920395466900001</v>
+        <v>17.255132914899999</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>12.880340840100001</v>
+        <v>17.052416288500002</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>12.8395646087</v>
+        <v>16.8459513701</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>12.798021587899999</v>
+        <v>16.6356192328</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>12.755661717400001</v>
+        <v>16.421295641099999</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4240,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>12.7124293029</v>
+        <v>16.202869748299999</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4252,7 +4252,7 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>12.6682621013</v>
+        <v>15.9802069815</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4264,7 +4264,7 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>12.623090208200001</v>
+        <v>15.753166544799999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4276,7 +4276,7 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>12.5768346935</v>
+        <v>15.521601075</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4288,7 +4288,7 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>12.5294059137</v>
+        <v>15.285356202899999</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4300,7 +4300,7 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>12.480701401499999</v>
+        <v>15.0442701665</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4312,7 +4312,7 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>12.4306031989</v>
+        <v>14.7981733178</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4324,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>12.378974445900001</v>
+        <v>14.5468876684</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>12.325654956799999</v>
+        <v>14.290226326899999</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>10</v>
       </c>
       <c r="C112">
-        <v>12.270455398599999</v>
+        <v>14.027992941000001</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>12.2131494997</v>
+        <v>13.759981073300001</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4372,7 +4372,7 @@
         <v>10</v>
       </c>
       <c r="C114">
-        <v>12.1534634227</v>
+        <v>13.4859735384</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4384,7 +4384,7 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>12.0910609535</v>
+        <v>13.205712052699999</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4396,7 +4396,7 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>12.025522345300001</v>
+        <v>12.918922582900001</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4408,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>11.956313218</v>
+        <v>12.625346274</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4420,7 +4420,7 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>11.8827372765</v>
+        <v>12.3247433932</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>11.803861490099999</v>
+        <v>12.016862870200001</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4444,7 +4444,7 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>11.718391801999999</v>
+        <v>11.701441643000001</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4456,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>11.6244538533</v>
+        <v>11.3781658464</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>11.5191753166</v>
+        <v>11.046743037300001</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="C123">
-        <v>11.397805500500001</v>
+        <v>10.7068246135</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4492,7 +4492,7 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <v>11.2515782995</v>
+        <v>10.3580410231</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4504,7 +4504,7 @@
         <v>5</v>
       </c>
       <c r="C125">
-        <v>11.0612938738</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4516,7 +4516,7 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <v>11.0438652769</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4528,7 +4528,7 @@
         <v>5</v>
       </c>
       <c r="C127">
-        <v>11.026419259200001</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4540,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="C128">
-        <v>11.008955778300001</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4552,7 +4552,7 @@
         <v>5</v>
       </c>
       <c r="C129">
-        <v>10.9914747919</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4564,7 +4564,7 @@
         <v>5</v>
       </c>
       <c r="C130">
-        <v>10.9739762572</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4576,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="C131">
-        <v>10.9564601314</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>5</v>
       </c>
       <c r="C132">
-        <v>10.938926371499999</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4600,7 +4600,7 @@
         <v>5</v>
       </c>
       <c r="C133">
-        <v>10.921374934299999</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4612,7 +4612,7 @@
         <v>5</v>
       </c>
       <c r="C134">
-        <v>10.9038057765</v>
+        <v>10.0000000003</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4624,7 +4624,7 @@
         <v>5</v>
       </c>
       <c r="C135">
-        <v>10.886218854499999</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4636,7 +4636,7 @@
         <v>5</v>
       </c>
       <c r="C136">
-        <v>10.868614124800001</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4648,7 +4648,7 @@
         <v>5</v>
       </c>
       <c r="C137">
-        <v>10.850991543299999</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4660,7 +4660,7 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>10.833351066200001</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4672,7 +4672,7 @@
         <v>5</v>
       </c>
       <c r="C139">
-        <v>10.815692649200001</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4684,7 +4684,7 @@
         <v>5</v>
       </c>
       <c r="C140">
-        <v>10.7980162479</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4696,7 +4696,7 @@
         <v>5</v>
       </c>
       <c r="C141">
-        <v>10.780321817800001</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4708,7 +4708,7 @@
         <v>5</v>
       </c>
       <c r="C142">
-        <v>10.762609314200001</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>5</v>
       </c>
       <c r="C143">
-        <v>10.7448786921</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4732,7 +4732,7 @@
         <v>5</v>
       </c>
       <c r="C144">
-        <v>10.7271299064</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4744,7 +4744,7 @@
         <v>5</v>
       </c>
       <c r="C145">
-        <v>10.7093629119</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4756,7 +4756,7 @@
         <v>5</v>
       </c>
       <c r="C146">
-        <v>10.6915776632</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4768,7 +4768,7 @@
         <v>5</v>
       </c>
       <c r="C147">
-        <v>10.6737741146</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4780,7 +4780,7 @@
         <v>5</v>
       </c>
       <c r="C148">
-        <v>10.6559522203</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="C149">
-        <v>10.638111934199999</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4804,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="C150">
-        <v>10.6202532103</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>5</v>
       </c>
       <c r="C151">
-        <v>10.6023760022</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4828,7 +4828,7 @@
         <v>5</v>
       </c>
       <c r="C152">
-        <v>10.5844802632</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4840,7 +4840,7 @@
         <v>5</v>
       </c>
       <c r="C153">
-        <v>10.566565946600001</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>5</v>
       </c>
       <c r="C154">
-        <v>10.548633005499999</v>
+        <v>10.0000000002</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4864,7 +4864,7 @@
         <v>5</v>
       </c>
       <c r="C155">
-        <v>10.5306813928</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4876,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="C156">
-        <v>10.512711061099999</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>5</v>
       </c>
       <c r="C157">
-        <v>10.494721963</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4900,7 +4900,7 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>10.4767140506</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4912,7 +4912,7 @@
         <v>5</v>
       </c>
       <c r="C159">
-        <v>10.458687276199999</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4924,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>10.4406415915</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4936,7 +4936,7 @@
         <v>5</v>
       </c>
       <c r="C161">
-        <v>10.4225769484</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4948,7 +4948,7 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>10.4044932982</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4960,7 +4960,7 @@
         <v>5</v>
       </c>
       <c r="C163">
-        <v>10.3863905923</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4972,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="C164">
-        <v>10.368268781899999</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4984,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="C165">
-        <v>10.350127817600001</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>10.331967650399999</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>10.322789845100001</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>10.313609571600001</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>10.3044268281</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>10.2952416132</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>10.286053925099999</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>10.2768637623</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>10.2676711232</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>10.258476006</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>10.2492784092</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>10.240078331099999</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <v>10.230875770200001</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>10.221670724699999</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>10.2124631931</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>10.2032531737</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>10.194040664899999</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>10.184825665</v>
+        <v>10.0000000001</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="C183">
-        <v>10.1756081723</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>10.166388185400001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>10.1571657024</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>10.1479407217</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>10.1387132418</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>10.129483260900001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>10.120250777400001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>10.1110157897</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>10.101778296000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>10.092538294800001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>10.083295784400001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>10.074050763000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>10.064803229100001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>10.055553181000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>10.0463006169</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>10.037045535400001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>10.027787934499999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>10.0185278128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>10.009265168500001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:3">
